--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/15/seed4/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.574</v>
+        <v>-13.376</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -558,13 +558,13 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.228</v>
+        <v>5.567000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.05</v>
+        <v>-11.18</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.336</v>
+        <v>-7.173</v>
       </c>
     </row>
     <row r="10">
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.032</v>
+        <v>-12.464</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>4.709999999999999</v>
+        <v>5.275</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -712,7 +712,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>7.106</v>
+        <v>6.601999999999999</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-13.498</v>
+        <v>-13.004</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.628</v>
+        <v>-12.45</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.3</v>
+        <v>-11.576</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -810,13 +810,13 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.343999999999999</v>
+        <v>5.81</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.789999999999999</v>
+        <v>-7.731999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -844,7 +844,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.388</v>
+        <v>-7.538999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-6.781999999999999</v>
+        <v>-7.353999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -911,7 +911,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-12.146</v>
+        <v>-12.098</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -922,10 +922,10 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.994</v>
+        <v>8.340999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.41</v>
+        <v>-12.547</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -956,7 +956,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.859999999999999</v>
+        <v>-7.87</v>
       </c>
     </row>
     <row r="38">
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.734</v>
+        <v>-7.449</v>
       </c>
     </row>
     <row r="39">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.664</v>
+        <v>-8.106999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -1068,7 +1068,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.068</v>
+        <v>-7.525</v>
       </c>
     </row>
     <row r="46">
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-12.156</v>
+        <v>-11.689</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-13.47</v>
+        <v>-13.088</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.718000000000001</v>
+        <v>-8.010000000000002</v>
       </c>
     </row>
     <row r="52">
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.1</v>
+        <v>-11.662</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1236,7 +1236,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.672000000000001</v>
+        <v>-8.296000000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.76</v>
+        <v>-7.888</v>
       </c>
     </row>
     <row r="65">
@@ -1359,7 +1359,7 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-10.512</v>
+        <v>-11.187</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1373,7 +1373,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.578</v>
+        <v>-11.492</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.922</v>
+        <v>5.930999999999999</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>4.942</v>
+        <v>6.11</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1524,10 +1524,10 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.680000000000001</v>
+        <v>8.75</v>
       </c>
       <c r="C78" t="n">
-        <v>-13.416</v>
+        <v>-12.059</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-11.854</v>
+        <v>-12.048</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1580,13 +1580,13 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.344</v>
+        <v>5.211</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
       </c>
       <c r="D82" t="n">
-        <v>-8.148</v>
+        <v>-8.181000000000001</v>
       </c>
     </row>
     <row r="83">
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>4.996</v>
+        <v>5.598000000000001</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1734,13 +1734,13 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>4.843999999999999</v>
+        <v>5.008</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.230000000000001</v>
+        <v>-7.064</v>
       </c>
     </row>
     <row r="94">
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.216</v>
+        <v>-11.823</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1866,7 +1866,7 @@
         <v>-12.7</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.525999999999999</v>
+        <v>-7.709999999999999</v>
       </c>
     </row>
     <row r="103">
@@ -1891,7 +1891,7 @@
         <v>7.61</v>
       </c>
       <c r="C104" t="n">
-        <v>-13.358</v>
+        <v>-13.099</v>
       </c>
       <c r="D104" t="n">
         <v>-7.34</v>
@@ -1908,7 +1908,7 @@
         <v>-12</v>
       </c>
       <c r="D105" t="n">
-        <v>-7.896000000000001</v>
+        <v>-7.876</v>
       </c>
     </row>
   </sheetData>
